--- a/Result/check3/2025-02-24.xlsx
+++ b/Result/check3/2025-02-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP9"/>
+  <dimension ref="A1:AM15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,200 +446,185 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>_quote</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>成交股數</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>rt_量</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>箱型力量</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>量能</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>now_price</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>rt_price</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>盤後量</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>成交量</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>淨值倍率</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>貝他值</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>_quote</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>價能</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>MA5_%</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>均價_%</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>MACD_%</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>MACD</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>MACD-SL</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>LevelArea</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>短交易量o</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>遠交易量o</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>diff_quote</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Trend_change</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>highlight_date</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>highlight_enddate</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Volume_Oscillator</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>淨值倍率</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>盤後量</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>成交量</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>量比</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>now_price</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>rt_price</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>LevelArea</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>over_%</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>均價_%</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>MACD_%</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>MACD</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>MACD-SL</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>價能O</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>成交股數</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>rt_量</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>短交易量o</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>遠交易量o</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Trend_change</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>highlight_date</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>highlight_enddate</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>成交金額</t>
-        </is>
-      </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>change_quote</t>
+          <t>Volume_Price_Change_sum</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>價能</t>
+          <t>Type0</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>Type0</t>
+          <t>Type1</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>Type1</t>
+          <t>Type2</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>Type2</t>
+          <t>殖利率</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>殖利率</t>
+          <t>每股營收(元)</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>每股淨值(元)</t>
+          <t>本益比</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>每股營收(元)</t>
+          <t>同業平均本益比</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>本益比</t>
+          <t>總市值</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>同業平均本益比</t>
+          <t>營收比重</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>總市值</t>
+          <t>Type</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>Volume_Price_Change_sum</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>營收比重</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Typelevel</t>
         </is>
@@ -653,112 +638,112 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3213</t>
+          <t>8147</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.48</t>
+          <t>2332.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.32</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>11.40</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>27.39</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>127.0</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>12521</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>47</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>138.5</t>
+          <t>5311</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>13.17</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>9.06</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>5.46</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>5.13</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>13579.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>187.0</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>295.0</t>
+          <t>27.0</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>7.64</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
@@ -768,92 +753,77 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-02-20</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-03-05</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>1734336.0</t>
+          <t>27</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>283479.0</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>正淩</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>茂訊</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>9.03</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>47.74</t>
+          <t>70.15</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>12.32</t>
+          <t>68.09</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>14.46</t>
+          <t>5567</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>28.86</t>
+          <t>連接器75.66%、背板, 機箱等電子構裝產品20.49%、其他3.86% (2023年)</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>8128</t>
+          <t>正淩-電子零組件業-上櫃</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>3453777.0</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>筆記型電腦(NB)97.98%、電腦周邊產品2.02% (2023年)</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>茂訊-電腦及週邊設備業-上櫃</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
     </row>
@@ -865,67 +835,67 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3059</t>
+          <t>4533</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.93</t>
+          <t>9280.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>10.49</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>41.2</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>5707</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
           <t>1.43</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>278</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>50356</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>36.61</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>47.15</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>7.24</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -935,42 +905,42 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>11.25</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>43576.862</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>58.0</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>69.0</t>
+          <t>54.0</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>-0.37</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
@@ -980,92 +950,77 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2025-02-17</t>
+          <t>2025-02-11</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-03-05</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>1924259454.0</t>
+          <t>54</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>-2.68</t>
+          <t>787179.0</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>-5.51</t>
+          <t>協易機</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>華晶科</t>
+          <t>電機機械</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>6.3</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>32.86</t>
+          <t>42.76</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>6.8</t>
+          <t>46.11</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>41.0</t>
+          <t>6504</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>61.2</t>
+          <t>沖床95.58%、其他4.42% (2023年)</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>14418</t>
+          <t>協易機-電機機械-上櫃</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>1597732487.0</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>數位影像相關應用產品100.00% (2023年)</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>華晶科-光電業-上市</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>光電業右上</t>
+          <t>電機機械右上</t>
         </is>
       </c>
     </row>
@@ -1077,112 +1032,112 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2641</t>
+          <t>4510</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>9.73</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.98</t>
+          <t>62553.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>7.22</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>8.51</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>41.13</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>59.9</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>31380</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>119</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>23.75</t>
+          <t>49725</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>-4.52</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
           <t>99.0</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>7.56</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>39314.0</t>
-        </is>
-      </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>119.0</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>140.0</t>
+          <t>62.0</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>80.0</t>
+          <t>-3.1</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
@@ -1192,92 +1147,77 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-02-14</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-03-05</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>847025.0</t>
+          <t>62</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>5111661.0</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>高鋒</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>正德</t>
+          <t>電機機械</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>22.77</t>
+          <t>55.87</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>46.11</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>12.12</t>
+          <t>6275</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>28.9</t>
+          <t>龍門切削中心機50.45%、立式切削中心機36.11%、臥式切削中心機7.41%、其他6.02% (2023年)</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>7387</t>
+          <t>高鋒-電機機械-上櫃</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>957675.0</t>
-        </is>
-      </c>
-      <c r="AN4" t="inlineStr">
-        <is>
-          <t>租賃及船舶管理100.00% (2023年)</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>正德-航運業-上櫃</t>
-        </is>
-      </c>
-      <c r="AP4" t="inlineStr">
-        <is>
-          <t>航運業右上</t>
+          <t>電機機械右上</t>
         </is>
       </c>
     </row>
@@ -1289,112 +1229,112 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2637</t>
+          <t>4303</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.74</t>
+          <t>42748.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-2.32</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>79.21</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>68.6</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>23857</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>-32.22</t>
+          <t>51</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>80.0</t>
+          <t>8407</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>-0.65</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
           <t>95.0</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>7.76</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>33970.031</t>
-        </is>
-      </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>199.0</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>36.0</t>
+          <t>62.0</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>47.0</t>
+          <t>-14.14</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
@@ -1404,92 +1344,77 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2025-02-14</t>
+          <t>2025-02-17</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-03-05</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2719224353.0</t>
+          <t>62</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>5826785.0</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>信立</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>慧洋-KY</t>
+          <t>塑膠工業</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>4.99</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>70.2</t>
+          <t>5.66</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>6.24</t>
+          <t>12.76</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>9.9</t>
+          <t>4738</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>20.1</t>
+          <t>PU合成皮(人造皮)75.91%、其他19.04%、PVC柔軟皮5.05% (2023年)</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>59713</t>
+          <t>信立-塑膠工業-上櫃</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>3084576865.0</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>租金收入98.05%、其他1.55%、運費0.29%、船舶管理0.12% (2023年)</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>慧洋-KY-航運業-上市</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>航運業右上</t>
+          <t>塑膠工業右上</t>
         </is>
       </c>
     </row>
@@ -1501,112 +1426,112 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2605</t>
+          <t>3213</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>6.48</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>13579.0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-3.74</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>5.13</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>87.10</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>131.5</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>8356</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>36.01</t>
+          <t>60</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>27.0</t>
+          <t>13601</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>9.89</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>9.06</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>5.46</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>38438.997</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>295.0</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>58.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>57.0</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
@@ -1616,92 +1541,77 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2025-02-14</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-03-05</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>1081836530.0</t>
+          <t>95</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>3453777.0</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>茂訊</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>新興</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>12.32</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>29.58</t>
+          <t>15.08</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>28.61</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>11.2</t>
+          <t>8480</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>20.1</t>
+          <t>筆記型電腦(NB)97.98%、電腦周邊產品2.02% (2023年)</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>15805</t>
+          <t>茂訊-電腦及週邊設備業-上櫃</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>632468565.0</t>
-        </is>
-      </c>
-      <c r="AN6" t="inlineStr">
-        <is>
-          <t>計航次出租99.93%、計時出租0.07% (2023年)</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>新興-航運業-上市</t>
-        </is>
-      </c>
-      <c r="AP6" t="inlineStr">
-        <is>
-          <t>航運業右上</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
     </row>
@@ -1713,207 +1623,192 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>3059</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>9.93</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>43576.862</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11.25</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>37.30</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>77385</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>19.68</t>
+          <t>210</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>24.0</t>
+          <t>28995</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>-1.30</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>50197.231</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>69.0</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>-6.0</t>
+          <t>43.0</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>31.0</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-02-17</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-03-05</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>1159290166.0</t>
+          <t>43</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>1597732487.0</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>華晶科</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>中鋼</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>鋼鐵工業</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>6.8</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>19.96</t>
+          <t>41.17</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>5.74</t>
+          <t>61.45</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>184.62</t>
+          <t>14480</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>56.91</t>
+          <t>數位影像相關應用產品100.00% (2023年)</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>377637</t>
+          <t>華晶科-光電業-上市</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>2972877283.0</t>
-        </is>
-      </c>
-      <c r="AN7" t="inlineStr">
-        <is>
-          <t>熱軋鋼品40.17%、冷軋鋼33.97%、棒鋼及線材12.54%、鋼板7.18%、H型鋼3.71%、其他鋼品1.01%、其他(非鐵產品及副產品)0.72%、窄幅鋼板0.42%、鋼管0.28% (2023年)</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>中鋼-鋼鐵工業-上市</t>
-        </is>
-      </c>
-      <c r="AP7" t="inlineStr">
-        <is>
-          <t>鋼鐵工業平</t>
+          <t>光電業右上</t>
         </is>
       </c>
     </row>
@@ -1925,112 +1820,112 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1605</t>
+          <t>3022</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>7.84</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>39708.454</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-5.41</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>6.94</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>108.0</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>64699</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>-23.88</t>
+          <t>101</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>28.0</t>
+          <t>32724</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>11.90</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
           <t>0.12</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>5.65</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>96613.639</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>380.0</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>91.0</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>59.0</t>
+          <t>8.09</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
@@ -2040,92 +1935,77 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2025-02-05</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-03-05</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2796860910.0</t>
+          <t>91</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>8122663874.0</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>威強電</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>華新</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>電器電纜</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>9.27</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>34.05</t>
+          <t>13.47</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>11.57</t>
+          <t>72.41</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>40.58</t>
+          <t>20750</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>21.14</t>
+          <t>工業電腦產品(IPC)62.48%、工業電腦周邊及組件32.05%、其他5.47% (2023年)</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>112877</t>
+          <t>威強電-電腦及週邊設備業-上市</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>3140671246.0</t>
-        </is>
-      </c>
-      <c r="AN8" t="inlineStr">
-        <is>
-          <t>不�袗�條棒34.28%、鎳生鐵20.59%、裸銅線13.75%、不鏽鋼鋼捲12.38%、電纜及電線8.49%、其他7.58%、無縫鋼管2.33%、鋼絞線0.61% (2023年)</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>華新-電器電纜-上市</t>
-        </is>
-      </c>
-      <c r="AP8" t="inlineStr">
-        <is>
-          <t>電器電纜右下</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
     </row>
@@ -2137,207 +2017,1374 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>2641</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>8.98</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-0.59</t>
+          <t>39314.0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>7.56</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>58.69</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>22.15</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>29317</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>37.70</t>
+          <t>165</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>35.0</t>
+          <t>32559</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>140.0</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2025-01-16</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>2025-03-05</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>957675.0</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>正德</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>航運業</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>12.37</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>7542</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>租賃及船舶管理100.00% (2023年)</t>
+        </is>
+      </c>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>正德-航運業-上櫃</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>航運業右上</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2637</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>33970.031</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>41.75</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>81.9</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>43769</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2025-02-14</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>2025-03-05</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>3084576865.0</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>慧洋-KY</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>航運業</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>10.71</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>64564</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>租金收入98.05%、其他1.55%、運費0.29%、船舶管理0.12% (2023年)</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>慧洋-KY-航運業-上市</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>航運業右上</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2606</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>75897.396</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>73.1</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>32968</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>-2.0</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>2025-02-14</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>2025-03-05</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>960241164.0</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>裕民</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>航運業</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>13.7</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>63548</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>運費98.18%、其他1.82% (2023年)</t>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>裕民-航運業-上市</t>
+        </is>
+      </c>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>航運業右上</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2605</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>38438.997</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
         <is>
           <t>0.04</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>35.89</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>28.05</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>8759</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>-0.9</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>2025-02-14</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>2025-03-05</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>632468565.0</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>新興</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>航運業</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>2.7</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>11.54</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>16273</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>計航次出租99.93%、計時出租0.07% (2023年)</t>
+        </is>
+      </c>
+      <c r="AL12" t="inlineStr">
+        <is>
+          <t>新興-航運業-上市</t>
+        </is>
+      </c>
+      <c r="AM12" t="inlineStr">
+        <is>
+          <t>航運業右上</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2543</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>34644.441</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>59.73</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>20126</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>-9.27</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>2025-01-17</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>2025-02-27</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>3708292637.0</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>皇昌</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>建材營造</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>21.76</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>30.37</t>
+        </is>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>46640</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>營建工程89.52%、混凝土10.44%、租賃0.05% (2023年)</t>
+        </is>
+      </c>
+      <c r="AL13" t="inlineStr">
+        <is>
+          <t>皇昌-建材營造-上市</t>
+        </is>
+      </c>
+      <c r="AM13" t="inlineStr">
+        <is>
+          <t>建材營造右上</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>50197.231</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>19.77</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>23.2</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>453</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>53254</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>-50.0</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>-6.0</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>2025-01-17</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>2025-03-05</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>2972877283.0</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>中鋼</t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>鋼鐵工業</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>1.4</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>181.54</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>56.76</t>
+        </is>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>371343</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>熱軋鋼品40.17%、冷軋鋼33.97%、棒鋼及線材12.54%、鋼板7.18%、H型鋼3.71%、其他鋼品1.01%、其他(非鐵產品及副產品)0.72%、窄幅鋼板0.42%、鋼管0.28% (2023年)</t>
+        </is>
+      </c>
+      <c r="AL14" t="inlineStr">
+        <is>
+          <t>中鋼-鋼鐵工業-上市</t>
+        </is>
+      </c>
+      <c r="AM14" t="inlineStr">
+        <is>
+          <t>鋼鐵工業右下</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1605</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>96613.639</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>31.80</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>29.6</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>38860</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>-1.64</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
         <is>
           <t>0.59</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>-0.29</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>21561.142</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>28.0</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>28.0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>-90.0</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>-8.23</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>2025-01-17</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
         <is>
           <t>2025-03-04</t>
         </is>
       </c>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>734760944.0</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>台泥</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>水泥工業</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>3140671246.0</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>華新</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>電器電纜</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>31.94</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>5.31</t>
-        </is>
-      </c>
-      <c r="AJ9" t="inlineStr">
-        <is>
-          <t>29.41</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>22.59</t>
-        </is>
-      </c>
-      <c r="AL9" t="inlineStr">
-        <is>
-          <t>264291</t>
-        </is>
-      </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>1629712194.0</t>
-        </is>
-      </c>
-      <c r="AN9" t="inlineStr">
-        <is>
-          <t>水泥及熟料45.42%、電力24.08%、預拌混凝土16.75%、設備銷售,案場建置及服務8.76%、電池,電池組4.30%、再生能源(RE)0.46%、電力資源交易平台0.18%、AFC0.03%、儲能及充電樁等-其他0.02%、其他0.01% (2023年)</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>台泥-水泥工業-上市</t>
-        </is>
-      </c>
-      <c r="AP9" t="inlineStr">
-        <is>
-          <t>水泥工業平</t>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t>11.57</t>
+        </is>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>39.64</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>21.17</t>
+        </is>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>110257</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>商品銷售97.00%、其他3.00% (2024年)</t>
+        </is>
+      </c>
+      <c r="AL15" t="inlineStr">
+        <is>
+          <t>華新-電器電纜-上市</t>
+        </is>
+      </c>
+      <c r="AM15" t="inlineStr">
+        <is>
+          <t>電器電纜右下</t>
         </is>
       </c>
     </row>

--- a/Result/check3/2025-02-24.xlsx
+++ b/Result/check3/2025-02-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM15"/>
+  <dimension ref="A1:AN16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,165 +466,170 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>箱型力量_5均</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>量能</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>now_price</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>rt_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>盤後量</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>成交量</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>淨值倍率</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>貝他值</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>價能</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>MA5_%</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>均價_%</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>MACD_%</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>MACD</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>MACD-SL</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>LevelArea</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>短交易量o</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>遠交易量o</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>diff_quote</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Trend_change</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>highlight_date</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>highlight_enddate</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Volume_Oscillator</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Volume_Price_Change_sum</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Type0</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Type1</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Type2</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>殖利率</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>每股營收(元)</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>本益比</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>同業平均本益比</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>總市值</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>營收比重</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Typelevel</t>
         </is>
@@ -663,165 +668,170 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>27.39</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>127.0</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
       <c r="K2" t="inlineStr">
         <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
           <t>5311</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>4.11</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>1.73</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>13.17</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>0.09</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>0.06</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>1.30</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>3.05</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>1.33</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>95.0</t>
-        </is>
-      </c>
       <c r="U2" t="inlineStr">
         <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
           <t>187.0</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>27.0</t>
-        </is>
-      </c>
       <c r="W2" t="inlineStr">
         <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
           <t>7.64</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>2025-02-20</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>2025-03-05</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
+          <t>2025-03-06</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
           <t>27</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>283479.0</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>正淩</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>電子零組件業</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>1.69</t>
-        </is>
-      </c>
       <c r="AG2" t="inlineStr">
         <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
           <t>9.03</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>70.15</t>
         </is>
       </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AJ2" t="inlineStr">
         <is>
           <t>68.09</t>
         </is>
       </c>
-      <c r="AJ2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>5567</t>
         </is>
       </c>
-      <c r="AK2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>連接器75.66%、背板, 機箱等電子構裝產品20.49%、其他3.86% (2023年)</t>
         </is>
       </c>
-      <c r="AL2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>正淩-電子零組件業-上櫃</t>
         </is>
       </c>
-      <c r="AM2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>電子零組件業右上</t>
         </is>
@@ -835,17 +845,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4533</t>
+          <t>6148</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>5.36</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9280.0</t>
+          <t>1713.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -855,172 +865,177 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>7.28</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>10.49</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>41.2</t>
+          <t>6.59</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>5707</t>
+          <t>39</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>17589</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>7.24</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
           <t>90.0</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>58.0</t>
-        </is>
-      </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>54.0</t>
+          <t>-38.0</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>-0.37</t>
+          <t>93</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
+          <t>-5.0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>2025-02-11</t>
-        </is>
-      </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-02-03</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>787179.0</t>
+          <t>93</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>協易機</t>
+          <t>2348.0</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>電機機械</t>
+          <t>驊宏資</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
+          <t>資訊服務業</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>6.3</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>42.76</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>46.11</t>
+          <t>25.48</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>6504</t>
+          <t>29.76</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>沖床95.58%、其他4.42% (2023年)</t>
+          <t>1864</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>協易機-電機機械-上櫃</t>
+          <t>技術服務53.47%、商品銷售45.45%、其他營業收入1.09% (2023年)</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>電機機械右上</t>
+          <t>驊宏資-資訊服務業-上櫃</t>
+        </is>
+      </c>
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t>資訊服務業右上</t>
         </is>
       </c>
     </row>
@@ -1032,17 +1047,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4510</t>
+          <t>4722</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>9.73</t>
+          <t>-2.04</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>62553.0</t>
+          <t>3414.409</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1052,172 +1067,177 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.51</t>
+          <t>-5.70</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>41.13</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>59.9</t>
+          <t>26.95</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
+          <t>63.2</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>119</t>
-        </is>
-      </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>49725</t>
+          <t>33</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>6444</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>-4.52</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
+          <t>-0.23</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
           <t>0.13</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>3.93</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>119.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>62.0</t>
+          <t>-3.0</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>-3.1</t>
+          <t>89</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>2025-02-14</t>
-        </is>
-      </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2024-12-23</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>5111661.0</t>
+          <t>89</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>高鋒</t>
+          <t>-638498126.0</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>電機機械</t>
+          <t>國精化</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>化學工業</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>55.87</t>
+          <t>10.58</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>46.11</t>
+          <t>29.17</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>6275</t>
+          <t>28.92</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>龍門切削中心機50.45%、立式切削中心機36.11%、臥式切削中心機7.41%、其他6.02% (2023年)</t>
+          <t>6671</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>高鋒-電機機械-上櫃</t>
+          <t>合成樹脂100.00% (2023年)</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>電機機械右上</t>
+          <t>國精化-化學工業-上市</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>化學工業右上</t>
         </is>
       </c>
     </row>
@@ -1229,17 +1249,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4303</t>
+          <t>4510</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>9.73</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>42748.0</t>
+          <t>62553.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1249,172 +1269,177 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>8.51</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>79.21</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>68.6</t>
+          <t>41.13</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
+          <t>59.9</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>8407</t>
+          <t>111</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>25237</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>-0.65</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>-1.03</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>199.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>62.0</t>
+          <t>119.0</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>-14.14</t>
+          <t>62</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
+          <t>-3.45</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>2025-02-17</t>
-        </is>
-      </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-02-14</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
+          <t>2025-03-06</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
           <t>62</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>5826785.0</t>
-        </is>
-      </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>信立</t>
+          <t>5111661.0</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>塑膠工業</t>
+          <t>高鋒</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
+          <t>電機機械</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>4.99</t>
-        </is>
-      </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>5.66</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>12.76</t>
+          <t>55.67</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>4738</t>
+          <t>46.15</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>PU合成皮(人造皮)75.91%、其他19.04%、PVC柔軟皮5.05% (2023年)</t>
+          <t>6254</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>信立-塑膠工業-上櫃</t>
+          <t>龍門切削中心機50.45%、立式切削中心機36.11%、臥式切削中心機7.41%、其他6.02% (2023年)</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>塑膠工業右上</t>
+          <t>高鋒-電機機械-上櫃</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>電機機械右上</t>
         </is>
       </c>
     </row>
@@ -1426,17 +1451,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3213</t>
+          <t>4303</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>6.48</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>13579.0</t>
+          <t>42748.0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1446,172 +1471,177 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.13</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>87.10</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>131.5</t>
+          <t>79.21</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
+          <t>68.6</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>13601</t>
+          <t>50</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>8451</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>9.89</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>9.06</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>5.46</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>295.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>199.0</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>62</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
+          <t>-10.47</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>2025-02-04</t>
-        </is>
-      </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-02-17</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>3453777.0</t>
+          <t>62</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>茂訊</t>
+          <t>5826785.0</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>信立</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
+          <t>塑膠工業</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
           <t>上櫃</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>12.32</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>15.08</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>28.61</t>
+          <t>5.85</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>8480</t>
+          <t>12.98</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>筆記型電腦(NB)97.98%、電腦周邊產品2.02% (2023年)</t>
+          <t>4896</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>茂訊-電腦及週邊設備業-上櫃</t>
+          <t>PU合成皮(人造皮)75.91%、其他19.04%、PVC柔軟皮5.05% (2023年)</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>信立-塑膠工業-上櫃</t>
+        </is>
+      </c>
+      <c r="AN6" t="inlineStr">
+        <is>
+          <t>塑膠工業右上</t>
         </is>
       </c>
     </row>
@@ -1623,17 +1653,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3059</t>
+          <t>3213</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>9.93</t>
+          <t>6.48</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>43576.862</t>
+          <t>13579.0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1643,172 +1673,177 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>11.25</t>
+          <t>5.13</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>37.30</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>87.10</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
+          <t>131.5</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
-      </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>28995</t>
+          <t>71</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>10781</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>-1.30</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>-9.16</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>9.06</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
           <t>100.0</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>69.0</t>
-        </is>
-      </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>295.0</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>95</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>2025-02-17</t>
-        </is>
-      </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-02-04</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>1597732487.0</t>
+          <t>95</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>華晶科</t>
+          <t>3453777.0</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>茂訊</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>6.8</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>41.17</t>
+          <t>12.32</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>61.45</t>
+          <t>14.25</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>14480</t>
+          <t>28.8</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>數位影像相關應用產品100.00% (2023年)</t>
+          <t>8011</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>華晶科-光電業-上市</t>
+          <t>筆記型電腦(NB)97.98%、電腦周邊產品2.02% (2023年)</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>茂訊-電腦及週邊設備業-上櫃</t>
+        </is>
+      </c>
+      <c r="AN7" t="inlineStr">
+        <is>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
     </row>
@@ -1820,17 +1855,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3022</t>
+          <t>3059</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>7.84</t>
+          <t>9.93</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>39708.454</t>
+          <t>43576.862</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1840,172 +1875,177 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6.94</t>
+          <t>11.25</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>108.0</t>
+          <t>37.30</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>32724</t>
+          <t>161</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>27742</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>11.90</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>-1.03</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
           <t>100.0</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>380.0</t>
-        </is>
-      </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>91.0</t>
+          <t>69.0</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>8.09</t>
+          <t>43</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>2025-02-05</t>
-        </is>
-      </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-02-17</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>8122663874.0</t>
+          <t>43</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>威強電</t>
+          <t>1597732487.0</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>華晶科</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
+          <t>光電業</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>9.27</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>13.47</t>
+          <t>6.8</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>72.41</t>
+          <t>40.83</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>20750</t>
+          <t>62.41</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>工業電腦產品(IPC)62.48%、工業電腦周邊及組件32.05%、其他5.47% (2023年)</t>
+          <t>14357</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>威強電-電腦及週邊設備業-上市</t>
+          <t>數位影像相關應用產品100.00% (2023年)</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>華晶科-光電業-上市</t>
+        </is>
+      </c>
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t>光電業右上</t>
         </is>
       </c>
     </row>
@@ -2017,17 +2057,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2641</t>
+          <t>3022</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>8.98</t>
+          <t>7.84</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>39314.0</t>
+          <t>39708.454</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2037,172 +2077,177 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>7.56</t>
+          <t>6.94</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>58.69</t>
+          <t>5.47</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>22.15</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>165</t>
-        </is>
-      </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>32559</t>
+          <t>124</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>32726</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>-8.48</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
           <t>100.0</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>140.0</t>
-        </is>
-      </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>80.0</t>
+          <t>380.0</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>8.66</t>
+          <t>91</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>2025-01-16</t>
-        </is>
-      </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-02-05</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>957675.0</t>
+          <t>91</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>正德</t>
+          <t>8122663874.0</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>威強電</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>12.37</t>
+          <t>9.27</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>29.0</t>
+          <t>12.84</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>7542</t>
+          <t>72.87</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>租賃及船舶管理100.00% (2023年)</t>
+          <t>19779</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>正德-航運業-上櫃</t>
+          <t>工業電腦產品(IPC)62.48%、工業電腦周邊及組件32.05%、其他5.47% (2023年)</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>威強電-電腦及週邊設備業-上市</t>
+        </is>
+      </c>
+      <c r="AN9" t="inlineStr">
+        <is>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
     </row>
@@ -2214,17 +2259,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2637</t>
+          <t>2903</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>9.74</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>33970.031</t>
+          <t>6795.61</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2234,172 +2279,177 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>7.76</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>41.75</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>81.9</t>
+          <t>18.65</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
+          <t>24.7</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>186</t>
-        </is>
-      </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>43769</t>
+          <t>79</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>9054</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>9.47</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>36.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>47.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>5.32</t>
+          <t>15</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>2025-02-14</t>
-        </is>
-      </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-01-20</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>3084576865.0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>慧洋-KY</t>
+          <t>182607857.0</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>遠百</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
+          <t>貿易百貨</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>3.18</t>
-        </is>
-      </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>6.24</t>
+          <t>6.26</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>10.71</t>
+          <t>5.46</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>20.29</t>
+          <t>17.38</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>64564</t>
+          <t>79.07</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>租金收入98.05%、其他1.55%、運費0.29%、船舶管理0.12% (2023年)</t>
+          <t>36203</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>慧洋-KY-航運業-上市</t>
+          <t>商品銷售55.57%、專櫃抽成35.91%、不動產租金4.18%、其他2.20%、廣告及促銷2.13% (2023年)</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>遠百-貿易百貨-上市</t>
+        </is>
+      </c>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>貿易百貨平</t>
         </is>
       </c>
     </row>
@@ -2411,17 +2461,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2606</t>
+          <t>2834</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>9.69</t>
+          <t>-1.29</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>75897.396</t>
+          <t>13424.449</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2431,172 +2481,177 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>-0.64</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>85.98</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>73.1</t>
+          <t>6.47</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
+          <t>15.5</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>148</t>
-        </is>
-      </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>32968</t>
+          <t>103</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>15609</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>6.97</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>-0.32</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>73.0</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>19</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>2025-02-14</t>
-        </is>
-      </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-02-12</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>960241164.0</t>
+          <t>19</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>裕民</t>
+          <t>-12279975.0</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>臺企銀</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
+          <t>金融保險</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>5.24</t>
+          <t>8.68</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>13.7</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>20.29</t>
+          <t>12.85</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>63548</t>
+          <t>13.61</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>運費98.18%、其他1.82% (2023年)</t>
+          <t>142562</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>裕民-航運業-上市</t>
+          <t>利息收入153.91%、公平價值變動之金融資產與金21.05%、手續費淨收益14.47%、透過其他綜合損益按公允價值3.87%、證券經紀1.21%、兌換損益0.61%、其他利息以外淨收益0.23% (2023年)</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>臺企銀-金融保險-上市</t>
+        </is>
+      </c>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>金融保險平</t>
         </is>
       </c>
     </row>
@@ -2608,17 +2663,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2605</t>
+          <t>2641</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>8.98</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>38438.997</t>
+          <t>39314.0</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -2628,62 +2683,62 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>7.56</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>35.89</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>28.05</t>
+          <t>58.69</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
+          <t>22.15</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>8759</t>
+          <t>82</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>24135</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>-0.36</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -2693,105 +2748,110 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>58.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>57.0</t>
+          <t>140.0</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>-0.9</t>
+          <t>80</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>2025-02-14</t>
-        </is>
-      </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>632468565.0</t>
+          <t>80</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>新興</t>
+          <t>957675.0</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
+          <t>正德</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
           <t>航運業</t>
         </is>
       </c>
-      <c r="AE12" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>11.54</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>20.29</t>
+          <t>12.32</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>16273</t>
+          <t>29.55</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>計航次出租99.93%、計時出租0.07% (2023年)</t>
+          <t>7511</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>新興-航運業-上市</t>
+          <t>租賃及船舶管理100.00% (2023年)</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
+        <is>
+          <t>正德-航運業-上櫃</t>
+        </is>
+      </c>
+      <c r="AN12" t="inlineStr">
         <is>
           <t>航運業右上</t>
         </is>
@@ -2805,17 +2865,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2543</t>
+          <t>2637</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>7.73</t>
+          <t>9.74</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>34644.441</t>
+          <t>33970.031</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -2825,172 +2885,177 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>7.40</t>
+          <t>7.76</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>59.73</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>112.0</t>
+          <t>41.75</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
+          <t>81.9</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
-      </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>20126</t>
+          <t>215</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>5.97</t>
+          <t>49063</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>6.89</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>-2.22</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>8.12</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>7.10</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
           <t>99.0</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>49.0</t>
+          <t>36.0</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>-9.27</t>
+          <t>47</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-02-14</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>3708292637.0</t>
+          <t>47</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>皇昌</t>
+          <t>3084576865.0</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>建材營造</t>
+          <t>慧洋-KY</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
+          <t>航運業</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>6.99</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>21.76</t>
+          <t>6.24</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>30.37</t>
+          <t>10.46</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>46640</t>
+          <t>20.38</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>營建工程89.52%、混凝土10.44%、租賃0.05% (2023年)</t>
+          <t>63072</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>皇昌-建材營造-上市</t>
+          <t>租金-長約88.33%、租金-短約10.50%、其他1.06%、船舶管理0.11% (2024年)</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>建材營造右上</t>
+          <t>慧洋-KY-航運業-上市</t>
+        </is>
+      </c>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>航運業右上</t>
         </is>
       </c>
     </row>
@@ -3002,17 +3067,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2543</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>7.73</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>50197.231</t>
+          <t>34644.441</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -3022,172 +3087,177 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>7.40</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>19.77</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>23.2</t>
+          <t>59.73</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>453</t>
-        </is>
-      </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>53254</t>
+          <t>44</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>10042</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>5.97</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>8.12</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>-50.0</t>
+          <t>7.10</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>-6.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>31.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>49</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
+          <t>-9.27</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
           <t>2.0</t>
         </is>
       </c>
-      <c r="Y14" t="inlineStr">
+      <c r="Z14" t="inlineStr">
         <is>
           <t>2025-01-17</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>2025-03-05</t>
-        </is>
-      </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>2972877283.0</t>
+          <t>49</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>中鋼</t>
+          <t>3708292637.0</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>鋼鐵工業</t>
+          <t>皇昌</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
+          <t>建材營造</t>
+        </is>
+      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF14" t="inlineStr">
-        <is>
-          <t>1.4</t>
-        </is>
-      </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>5.74</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>181.54</t>
+          <t>6.99</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>56.76</t>
+          <t>21.76</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>371343</t>
+          <t>30.58</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>熱軋鋼品40.17%、冷軋鋼33.97%、棒鋼及線材12.54%、鋼板7.18%、H型鋼3.71%、其他鋼品1.01%、其他(非鐵產品及副產品)0.72%、窄幅鋼板0.42%、鋼管0.28% (2023年)</t>
+          <t>46640</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>中鋼-鋼鐵工業-上市</t>
+          <t>營建工程89.52%、混凝土10.44%、租賃0.05% (2023年)</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>鋼鐵工業右下</t>
+          <t>皇昌-建材營造-上市</t>
+        </is>
+      </c>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>建材營造右上</t>
         </is>
       </c>
     </row>
@@ -3199,190 +3269,397 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>2402</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>-1.58</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3437.914</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>41.25</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>5506</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>-0.48</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>2025-01-21</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>2025-03-06</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>968726735.0</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>毅嘉</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>電子零組件業</t>
+        </is>
+      </c>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>19.76</t>
+        </is>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>34.72</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>12763</t>
+        </is>
+      </c>
+      <c r="AL15" t="inlineStr">
+        <is>
+          <t>電子整合元件81.68%、機構整合元件產品18.32% (2023年)</t>
+        </is>
+      </c>
+      <c r="AM15" t="inlineStr">
+        <is>
+          <t>毅嘉-電子零組件業-上市</t>
+        </is>
+      </c>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>電子零組件業右上</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>1605</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>2.87</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>96613.639</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>5.65</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
         <is>
           <t>31.80</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>29.6</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>138</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>38860</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>38466</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>0.87</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>0.7</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>-1.64</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
         <is>
           <t>0.02</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>0.12</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="R16" t="inlineStr">
         <is>
           <t>0.59</t>
         </is>
       </c>
-      <c r="R15" t="inlineStr">
+      <c r="S16" t="inlineStr">
         <is>
           <t>1.40</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr">
+      <c r="T16" t="inlineStr">
         <is>
           <t>0.88</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="U16" t="inlineStr">
         <is>
           <t>-90.0</t>
         </is>
       </c>
-      <c r="U15" t="inlineStr">
+      <c r="V16" t="inlineStr">
         <is>
           <t>11.0</t>
         </is>
       </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>59.0</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>-8.23</t>
-        </is>
-      </c>
-      <c r="X15" t="inlineStr">
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>-4.59</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Y15" t="inlineStr">
+      <c r="Z16" t="inlineStr">
         <is>
           <t>2025-02-13</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
+      <c r="AA16" t="inlineStr">
         <is>
           <t>2025-03-04</t>
         </is>
       </c>
-      <c r="AA15" t="inlineStr">
+      <c r="AB16" t="inlineStr">
         <is>
           <t>59</t>
         </is>
       </c>
-      <c r="AB15" t="inlineStr">
+      <c r="AC16" t="inlineStr">
         <is>
           <t>3140671246.0</t>
         </is>
       </c>
-      <c r="AC15" t="inlineStr">
+      <c r="AD16" t="inlineStr">
         <is>
           <t>華新</t>
         </is>
       </c>
-      <c r="AD15" t="inlineStr">
+      <c r="AE16" t="inlineStr">
         <is>
           <t>電器電纜</t>
         </is>
       </c>
-      <c r="AE15" t="inlineStr">
+      <c r="AF16" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AF15" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="AG15" t="inlineStr">
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="AH16" t="inlineStr">
         <is>
           <t>11.57</t>
         </is>
       </c>
-      <c r="AH15" t="inlineStr">
-        <is>
-          <t>39.64</t>
-        </is>
-      </c>
-      <c r="AI15" t="inlineStr">
-        <is>
-          <t>21.17</t>
-        </is>
-      </c>
-      <c r="AJ15" t="inlineStr">
-        <is>
-          <t>110257</t>
-        </is>
-      </c>
-      <c r="AK15" t="inlineStr">
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>41.01</t>
+        </is>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>21.47</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>114087</t>
+        </is>
+      </c>
+      <c r="AL16" t="inlineStr">
         <is>
           <t>商品銷售97.00%、其他3.00% (2024年)</t>
         </is>
       </c>
-      <c r="AL15" t="inlineStr">
+      <c r="AM16" t="inlineStr">
         <is>
           <t>華新-電器電纜-上市</t>
         </is>
       </c>
-      <c r="AM15" t="inlineStr">
+      <c r="AN16" t="inlineStr">
         <is>
           <t>電器電纜右下</t>
         </is>

--- a/Result/check3/2025-02-24.xlsx
+++ b/Result/check3/2025-02-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN1"/>
+  <dimension ref="A1:AQ1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,162 +476,177 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>短增量</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>now_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>rt_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>盤後量</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>成交量</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>淨值倍率</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>貝他值</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>價能</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>MA5_%</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>均價_%</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>MACD_%</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>MACD</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>MACD-SL</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>LevelArea</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>短交易量o</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>遠交易量o</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>diff_quote</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Trend_change</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>highlight_date</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>highlight_enddate</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Volume_Oscillator</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Volume_Price_Change_sum</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Type0</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Type1</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Type2</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>殖利率</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>每股營收(元)</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>本益比</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>同業平均本益比</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>總市值</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>營收比重</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Typelevel</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>每股淨值(元)</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>短增level</t>
         </is>
       </c>
     </row>
